--- a/data/trans_camb/P25A_2_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_2_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 6,64</t>
+          <t>-13,08; 7,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 1,99</t>
+          <t>-16,88; 1,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 7,9</t>
+          <t>-13,21; 11,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 7,09</t>
+          <t>1,95; 18,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,45</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,82</t>
+          <t>0,0; 16,69</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 9,56</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 3,93</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 9,32</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,51%</t>
+          <t>-31,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-53,29%</t>
+          <t>-73,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>-7,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,64%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,49%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>78,8%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-35,37%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57,09%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,8; 188,6</t>
+          <t>-100,0; 557,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-93,1; 92,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,7; inf</t>
+          <t>-95,71; 445,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,6; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,39; 185,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,24; 110,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-61,02; 718,7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-68,59; 732,47</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,02</t>
+          <t>-3,89; 1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,0</t>
+          <t>-5,33; -0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,41</t>
+          <t>-2,49; 4,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,68</t>
+          <t>-1,38; 3,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,29</t>
+          <t>-0,5; 4,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,53</t>
+          <t>-0,5; 5,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 1,57</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 1,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 3,55</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,53%</t>
+          <t>-47,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-74,63%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>107,34%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>537,55%</t>
+          <t>75,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>161,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>137,87%</t>
+          <t>203,77%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-6,09%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-15,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90,67%</t>
         </is>
       </c>
     </row>
@@ -891,12 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,55; 566,19</t>
+          <t>-80,22; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 904,59</t>
+          <t>-71,87; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-79,74; 312,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-83,75; 233,34</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-49,9; 577,75</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,0</t>
+          <t>-4,63; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,63</t>
+          <t>-3,52; 1,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,28</t>
+          <t>-3,23; 2,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,22</t>
+          <t>-0,94; 3,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,49</t>
+          <t>-1,53; 1,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,58</t>
+          <t>-1,16; 2,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 1,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 0,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 1,46</t>
         </is>
       </c>
     </row>
@@ -994,27 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-55,38%</t>
+          <t>-53,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>352,35%</t>
+          <t>-16,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>130,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,08%</t>
+          <t>21,8%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-26,02%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-32,43%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-2,5%</t>
         </is>
       </c>
     </row>
@@ -1055,11 +1251,26 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-27,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-61,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>138,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>200,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,19; 68,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-89,44; 37,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 610,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,72; 961,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 145,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 166,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 0,28</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; -0,5</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 2,61</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 3,55</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 2,98</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 4,41</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 1,62</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 0,72</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 2,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-52,98%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-79,53%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>259,99%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>172,19%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>275,03%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16,41%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-25,14%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>71,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-87,72; 38,51</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 19,6</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-63,98; 196,48</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-18,84; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-13,94; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-55,27; 182,07</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-74,57; 89,23</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-26,6; 271,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
